--- a/biology/Neurosciences/Joseph_Altman/Joseph_Altman.xlsx
+++ b/biology/Neurosciences/Joseph_Altman/Joseph_Altman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Altman (7 octobre 1925 - 19 avril 2016) est un biologiste américain qui a démontré la neurogenèse dans le cerveau adulte dans les années 1960[1],[2]. Il propose déjà l'apprentissage et la mémoire comme rôles potentiels de la neurogenèse. Comme chercheur indépendant au MIT, ses résultats furent largement ignorés[3]. Il faut attendre les travaux de Kaplan quinze ans plus tard pour que ses expériences soient confirmées, et encore quelques années avant que ses conclusions soient acceptées par la communauté scientifique[1],[4]. Altman continua sa carrière à l'université Purdue, où il écrivit plusieurs articles et livres sur le développement cérébral. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Altman (7 octobre 1925 - 19 avril 2016) est un biologiste américain qui a démontré la neurogenèse dans le cerveau adulte dans les années 1960,. Il propose déjà l'apprentissage et la mémoire comme rôles potentiels de la neurogenèse. Comme chercheur indépendant au MIT, ses résultats furent largement ignorés. Il faut attendre les travaux de Kaplan quinze ans plus tard pour que ses expériences soient confirmées, et encore quelques années avant que ses conclusions soient acceptées par la communauté scientifique,. Altman continua sa carrière à l'université Purdue, où il écrivit plusieurs articles et livres sur le développement cérébral. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2011 : Prix Prince des Asturies (technique et recherches scientifiques)[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2011 : Prix Prince des Asturies (technique et recherches scientifiques)</t>
         </is>
       </c>
     </row>
